--- a/Enchantments/Items/Rare.xlsx
+++ b/Enchantments/Items/Rare.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B47D48-D8C7-4013-A6B6-49D351A6B43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFBCCB8-1438-4B24-9689-BBF5F0CCCFAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Berserker" sheetId="3" r:id="rId1"/>
-    <sheet name="Disruption" sheetId="4" r:id="rId2"/>
-    <sheet name="Flame Tongue" sheetId="2" r:id="rId3"/>
-    <sheet name="Life Stealing" sheetId="5" r:id="rId4"/>
+    <sheet name="Disruption" sheetId="4" r:id="rId1"/>
+    <sheet name="Flame Tongue" sheetId="2" r:id="rId2"/>
+    <sheet name="Life Stealing" sheetId="5" r:id="rId3"/>
+    <sheet name="Sun Blade" sheetId="9" r:id="rId4"/>
+    <sheet name="Wounding" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Rare</t>
   </si>
@@ -568,60 +569,6 @@
     <t>3RD-LEVEL MAGIC WEAPON</t>
   </si>
   <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
-    <t>TOUGH</t>
-  </si>
-  <si>
-    <r>
-      <t>Enchant a feat (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-9 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enchanted </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tough</t>
-    </r>
-  </si>
-  <si>
-    <t>9 ~ 26 MCI</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Cast </t>
     </r>
@@ -1080,9 +1027,6 @@
     </r>
   </si>
   <si>
-    <t>33 MCI</t>
-  </si>
-  <si>
     <r>
       <t>Concentration (</t>
     </r>
@@ -1110,18 +1054,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>28 MCI</t>
-  </si>
-  <si>
-    <t>-18 MCI</t>
-  </si>
-  <si>
-    <t>+1 WEAPON</t>
-  </si>
-  <si>
-    <t>30 MCI</t>
   </si>
   <si>
     <r>
@@ -1177,7 +1109,219 @@
     </r>
   </si>
   <si>
-    <t>35 (32) MCI</t>
+    <t>Temporary hit point healing</t>
+  </si>
+  <si>
+    <r>
+      <t>Change to temp. hit points (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1d10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2d10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Healing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 action </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require no action (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concentration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vampiric weapon</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL VAMPIRIC WEAPON</t>
+  </si>
+  <si>
+    <r>
+      <t>Fire damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+3 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1189,7 +1333,7 @@
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="8"/>
+        <color rgb="FFBB2961"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1210,11 +1354,8 @@
     </r>
   </si>
   <si>
-    <t>Temporary hit point healing</t>
-  </si>
-  <si>
-    <r>
-      <t>Change to temp. hit points (</t>
+    <r>
+      <t>Cast the spell (</t>
     </r>
     <r>
       <rPr>
@@ -1226,24 +1367,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-1 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1d10 </t>
+      <t>-9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enchanted </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push the advantage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1d8 </t>
     </r>
     <r>
       <rPr>
@@ -1262,12 +1448,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 2d10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Healing (</t>
+      <t xml:space="preserve"> 0</t>
+    </r>
+  </si>
+  <si>
+    <t>PUSH THE ADVANTAGE (4 STAMINA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Enchant a flourish (</t>
     </r>
     <r>
       <rPr>
@@ -1279,24 +1468,152 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-3 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 action </t>
+      <t>-24 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>light</t>
+    </r>
+  </si>
+  <si>
+    <t>+2 WEAPON</t>
+  </si>
+  <si>
+    <t>BASE 26 MCI</t>
+  </si>
+  <si>
+    <t>5TH-LEVEL HOLY WEAPON</t>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-15 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>holy weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concentration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require no action (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bonus action </t>
     </r>
     <r>
       <rPr>
@@ -1320,7 +1637,198 @@
   </si>
   <si>
     <r>
-      <t>Require no action (</t>
+      <t>Remove blinding explosion (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>33 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) MCI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease cooldown (</t>
     </r>
     <r>
       <rPr>
@@ -1349,108 +1857,26 @@
   </si>
   <si>
     <r>
-      <t>Concentration (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-4 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cast </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vampiric weapon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cast the spell (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-12 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>3RD-LEVEL VAMPIRIC WEAPON</t>
-  </si>
-  <si>
-    <r>
-      <t>Fire damage (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+3 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t xml:space="preserve">1 per short rest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no cooldown</t>
     </r>
   </si>
 </sst>
@@ -1536,8 +1962,32 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color rgb="FFBB2961"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFBB2961"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1546,33 +1996,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF7C80"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FFC89800"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1693,7 +2117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1709,13 +2133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1725,9 +2143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,20 +2155,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBB2961"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2027,82 +2457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E105EC-6FBF-4C53-85F2-83B19A232A6D}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F85480-EC10-499C-A99F-8A1438D5B0BE}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,113 +2470,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="21"/>
+      <c r="A2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>33</v>
+      <c r="A3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="11"/>
+      <c r="A15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2237,7 +2596,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -2256,12 +2615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910844F4-CAFA-4C0B-B42C-0050CF85F49F}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,32 +2631,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="11" t="s">
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="8"/>
@@ -2309,25 +2668,25 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -2341,7 +2700,7 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2351,29 +2710,29 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -2387,7 +2746,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2407,7 +2766,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -2429,7 +2788,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
@@ -2447,15 +2806,16 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD0D8C-EFDE-43F1-8F87-F29E0B5DDB86}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,74 +2824,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -2544,4 +2904,165 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB715F68-7EED-4F2B-BFB8-909E4BD89D8B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="A16:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AD5550-E5D1-4F4D-8FC6-D40ADD5E5C26}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>